--- a/medicine/Enfance/Armand_Toupet/Armand_Toupet.xlsx
+++ b/medicine/Enfance/Armand_Toupet/Armand_Toupet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Armand Toupet, né le 2 mai 1919 à Bourges et mort le 9 novembre 2006 à Bourges, est un écrivain français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a dès son plus jeune âge la passion de l’écriture.
 Lors de la Seconde Guerre mondiale, il est fait prisonnier. En 1945, il se trouve au milieu de la Bataille de Berlin et assiste à la chute de l'Allemagne nazie. À son retour en France, il écrit son premier livre, Marouska. Plus de cinquante romans suivront formant une œuvre très diversifiée, depuis le récit de guerre jusqu'au roman humoristique, en passant par des romans policiers et de nombreux livres pour la jeunesse.
@@ -544,7 +558,9 @@
           <t>Prix littéraires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Livres pour adultes 
 Marouska
